--- a/Code/Results/Cases/Case_2_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.655130807415048</v>
+        <v>1.143971560016951</v>
       </c>
       <c r="C2">
-        <v>0.5497596773720659</v>
+        <v>0.2179478008422109</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03728561930731877</v>
+        <v>0.09275002793725218</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.5668879714340704</v>
+        <v>0.8355886751384389</v>
       </c>
       <c r="H2">
-        <v>0.4107230039393812</v>
+        <v>0.8968658160378311</v>
       </c>
       <c r="I2">
-        <v>0.3539245522575172</v>
+        <v>0.8363699754589149</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.160884174179813</v>
+        <v>0.2081157683844523</v>
       </c>
       <c r="M2">
-        <v>0.4417024887411287</v>
+        <v>0.2484339422530155</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.304211476272712</v>
+        <v>1.040905945403495</v>
       </c>
       <c r="C3">
-        <v>0.485595356956054</v>
+        <v>0.1972862587502107</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03816540093635057</v>
+        <v>0.09332410553341686</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.5410860402797795</v>
+        <v>0.8409947495308074</v>
       </c>
       <c r="H3">
-        <v>0.4091267920027661</v>
+        <v>0.9060113594016173</v>
       </c>
       <c r="I3">
-        <v>0.366317912594667</v>
+        <v>0.8496455536922625</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1462823009434118</v>
+        <v>0.205589229310668</v>
       </c>
       <c r="M3">
-        <v>0.384536143752463</v>
+        <v>0.2326001763199983</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.089842222371487</v>
+        <v>0.9777953924269127</v>
       </c>
       <c r="C4">
-        <v>0.4463217126790369</v>
+        <v>0.1845140525478541</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03873419003499512</v>
+        <v>0.09369774142490983</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.5276926511298115</v>
+        <v>0.845180354856268</v>
       </c>
       <c r="H4">
-        <v>0.4095292536692625</v>
+        <v>0.912254251543331</v>
       </c>
       <c r="I4">
-        <v>0.3754840980981271</v>
+        <v>0.8584676409226759</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1375394631552211</v>
+        <v>0.2041464342171295</v>
       </c>
       <c r="M4">
-        <v>0.3497018628959907</v>
+        <v>0.2229563791031097</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.002707566450056</v>
+        <v>0.9521216346157644</v>
       </c>
       <c r="C5">
-        <v>0.4303375797125</v>
+        <v>0.1792877161574324</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03897313740974973</v>
+        <v>0.09385533196088924</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.5228079795124216</v>
+        <v>0.8471029295784263</v>
       </c>
       <c r="H5">
-        <v>0.4100214455227729</v>
+        <v>0.9149557713654985</v>
       </c>
       <c r="I5">
-        <v>0.3795901793144729</v>
+        <v>0.8622309906448393</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.134028475515052</v>
+        <v>0.2035857876954594</v>
       </c>
       <c r="M5">
-        <v>0.3355637483755771</v>
+        <v>0.2190462591937958</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.988250882486966</v>
+        <v>0.9478612329723433</v>
       </c>
       <c r="C6">
-        <v>0.4276843442026745</v>
+        <v>0.1784185864701158</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03901324611701384</v>
+        <v>0.09388182209081064</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.522030311585084</v>
+        <v>0.8474352453180245</v>
       </c>
       <c r="H6">
-        <v>0.4101224495384628</v>
+        <v>0.9154138600220989</v>
       </c>
       <c r="I6">
-        <v>0.3802938064688171</v>
+        <v>0.8628660436042423</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1334484881663656</v>
+        <v>0.2034943424348299</v>
       </c>
       <c r="M6">
-        <v>0.3332193034945874</v>
+        <v>0.2183981872321894</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.088666260355012</v>
+        <v>0.9774489663994359</v>
       </c>
       <c r="C7">
-        <v>0.4461060770705387</v>
+        <v>0.1844436555649338</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03873738360552448</v>
+        <v>0.09369984514459095</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.5276245080321189</v>
+        <v>0.8452054063485406</v>
       </c>
       <c r="H7">
-        <v>0.409534587549544</v>
+        <v>0.9122900479097211</v>
       </c>
       <c r="I7">
-        <v>0.3755379991794037</v>
+        <v>0.8585177139690749</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1374919084451065</v>
+        <v>0.2041387625629341</v>
       </c>
       <c r="M7">
-        <v>0.3495109724114656</v>
+        <v>0.2229035654752991</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.533872882374339</v>
+        <v>1.108399377103581</v>
       </c>
       <c r="C8">
-        <v>0.5276033743567439</v>
+        <v>0.2108415606381016</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03758301315987511</v>
+        <v>0.09294358779455902</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.5574566410029007</v>
+        <v>0.8372723438683636</v>
       </c>
       <c r="H8">
-        <v>0.4098735690295712</v>
+        <v>0.8998887844549017</v>
       </c>
       <c r="I8">
-        <v>0.3578618790904855</v>
+        <v>0.8408079201438703</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1558005775222355</v>
+        <v>0.2072221059840658</v>
       </c>
       <c r="M8">
-        <v>0.4219301930162871</v>
+        <v>0.2429583085335452</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.418269664524587</v>
+        <v>1.366528139400373</v>
       </c>
       <c r="C9">
-        <v>0.6889403844834874</v>
+        <v>0.2619262222058865</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0355476963975645</v>
+        <v>0.09162781352145766</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6374625878787015</v>
+        <v>0.8286311830018889</v>
       </c>
       <c r="H9">
-        <v>0.4224549148655541</v>
+        <v>0.8805624261780167</v>
       </c>
       <c r="I9">
-        <v>0.3365503000728758</v>
+        <v>0.8114198777581905</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1936784080954013</v>
+        <v>0.2141293132370379</v>
       </c>
       <c r="M9">
-        <v>0.5665394929367267</v>
+        <v>0.2829021310474076</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.079034237473593</v>
+        <v>1.556969232774691</v>
       </c>
       <c r="C10">
-        <v>0.8092386033395371</v>
+        <v>0.299046802830901</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03419383706592671</v>
+        <v>0.09076227394441716</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.712490990866371</v>
+        <v>0.8265579012041542</v>
       </c>
       <c r="H10">
-        <v>0.4403961903404365</v>
+        <v>0.8694260620759025</v>
       </c>
       <c r="I10">
-        <v>0.3305407753278899</v>
+        <v>0.7931089850807282</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2230255694014716</v>
+        <v>0.2197294326416994</v>
       </c>
       <c r="M10">
-        <v>0.6751099256067548</v>
+        <v>0.3126228053659759</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.383035806352268</v>
+        <v>1.643775539114699</v>
       </c>
       <c r="C11">
-        <v>0.8645579332959414</v>
+        <v>0.315845772391782</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03360923799101467</v>
+        <v>0.09039031441232459</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.750927517500287</v>
+        <v>0.826555935535211</v>
       </c>
       <c r="H11">
-        <v>0.4508014293261056</v>
+        <v>0.8650290526655624</v>
       </c>
       <c r="I11">
-        <v>0.3302742868785131</v>
+        <v>0.7854965086144787</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2367834673552807</v>
+        <v>0.222391362627647</v>
       </c>
       <c r="M11">
-        <v>0.7251909481557703</v>
+        <v>0.3262245665117547</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.498737658884295</v>
+        <v>1.676671162487821</v>
       </c>
       <c r="C12">
-        <v>0.8856109047433449</v>
+        <v>0.3221945598874356</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03339242218304572</v>
+        <v>0.09025258200954878</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7661738041799708</v>
+        <v>0.8266915581964582</v>
       </c>
       <c r="H12">
-        <v>0.4550973076910054</v>
+        <v>0.8634605605345058</v>
       </c>
       <c r="I12">
-        <v>0.3305628607584694</v>
+        <v>0.7827174495688922</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2420589620740685</v>
+        <v>0.2234158177029855</v>
       </c>
       <c r="M12">
-        <v>0.7442717321496559</v>
+        <v>0.3313868641558457</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.473791701389359</v>
+        <v>1.669585451817738</v>
       </c>
       <c r="C13">
-        <v>0.8810717847205751</v>
+        <v>0.3208277969085032</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03343891351443107</v>
+        <v>0.09028210653412061</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.7628582759963081</v>
+        <v>0.8266562681188674</v>
       </c>
       <c r="H13">
-        <v>0.4541557345602172</v>
+        <v>0.8637940630792542</v>
       </c>
       <c r="I13">
-        <v>0.3304827988415155</v>
+        <v>0.7833113534149732</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2409197493589375</v>
+        <v>0.2231944519805609</v>
       </c>
       <c r="M13">
-        <v>0.7401568923079935</v>
+        <v>0.3302745570002443</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.392542423063162</v>
+        <v>1.646481407429519</v>
       </c>
       <c r="C14">
-        <v>0.8662877575528682</v>
+        <v>0.3163683441347871</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03359130867181181</v>
+        <v>0.09037892060679686</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.7521675470579794</v>
+        <v>0.8265643544139607</v>
       </c>
       <c r="H14">
-        <v>0.4511475252299419</v>
+        <v>0.8648980745942509</v>
       </c>
       <c r="I14">
-        <v>0.3302900109917744</v>
+        <v>0.7852657942781818</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2372161264188577</v>
+        <v>0.2224753157464789</v>
       </c>
       <c r="M14">
-        <v>0.7267583054592492</v>
+        <v>0.326649040032521</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.342853707874838</v>
+        <v>1.632332603446343</v>
       </c>
       <c r="C15">
-        <v>0.8572463586509116</v>
+        <v>0.3136351558029276</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03368525079967966</v>
+        <v>0.09043862808622904</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7457114453043658</v>
+        <v>0.8265258440984127</v>
       </c>
       <c r="H15">
-        <v>0.4493522616990049</v>
+        <v>0.8655868992258604</v>
       </c>
       <c r="I15">
-        <v>0.3302237344329981</v>
+        <v>0.7864764545260172</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2349563242647292</v>
+        <v>0.222036964670238</v>
       </c>
       <c r="M15">
-        <v>0.71856693969535</v>
+        <v>0.3244298135579484</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.059243404337053</v>
+        <v>1.551299644205756</v>
       </c>
       <c r="C16">
-        <v>0.8056369220813338</v>
+        <v>0.2979471878708182</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03423267646448158</v>
+        <v>0.0907870196627949</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.7100717119489843</v>
+        <v>0.8265770563515815</v>
       </c>
       <c r="H16">
-        <v>0.439764078205684</v>
+        <v>0.8697269094238322</v>
       </c>
       <c r="I16">
-        <v>0.3306107274421706</v>
+        <v>0.7936209522388786</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2221352501223492</v>
+        <v>0.2195577704145393</v>
       </c>
       <c r="M16">
-        <v>0.6718523244157169</v>
+        <v>0.3117355298712425</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.886195152571133</v>
+        <v>1.501632305168243</v>
       </c>
       <c r="C17">
-        <v>0.7741416270472712</v>
+        <v>0.2883007108190725</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03457655682612981</v>
+        <v>0.09100631670395809</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.6893597327821652</v>
+        <v>0.826850262488108</v>
       </c>
       <c r="H17">
-        <v>0.4344791557965948</v>
+        <v>0.8724382699673896</v>
       </c>
       <c r="I17">
-        <v>0.3315036945410341</v>
+        <v>0.7981879155525036</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2143791715483729</v>
+        <v>0.2180661590305419</v>
       </c>
       <c r="M17">
-        <v>0.643382981003775</v>
+        <v>0.303968817467613</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.78697793192066</v>
+        <v>1.473081374195488</v>
       </c>
       <c r="C18">
-        <v>0.7560811144265926</v>
+        <v>0.2827440918310344</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03477728768035693</v>
+        <v>0.09113450114382138</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6778473089432708</v>
+        <v>0.8270959304098113</v>
       </c>
       <c r="H18">
-        <v>0.4316484310844828</v>
+        <v>0.8740607185536362</v>
       </c>
       <c r="I18">
-        <v>0.3322472683072384</v>
+        <v>0.8008821932271708</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2099559977900896</v>
+        <v>0.217218992858534</v>
       </c>
       <c r="M18">
-        <v>0.6270721880144521</v>
+        <v>0.2995093058934302</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.753436234560638</v>
+        <v>1.463417369145475</v>
       </c>
       <c r="C19">
-        <v>0.749974986709617</v>
+        <v>0.2808613059370657</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03484575489240527</v>
+        <v>0.09117825472361063</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.6740161164351548</v>
+        <v>0.8271942826810204</v>
       </c>
       <c r="H19">
-        <v>0.4307249436102438</v>
+        <v>0.8746208517622591</v>
       </c>
       <c r="I19">
-        <v>0.3325375235475931</v>
+        <v>0.801806004634944</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.208464695573582</v>
+        <v>0.2169340069441432</v>
       </c>
       <c r="M19">
-        <v>0.6215601467913672</v>
+        <v>0.2980007179845217</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.904583139828162</v>
+        <v>1.506917787395764</v>
       </c>
       <c r="C20">
-        <v>0.7774885563221972</v>
+        <v>0.2893284459695451</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03453964547898614</v>
+        <v>0.09098276001326533</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.6915226028850867</v>
+        <v>0.8268120095814453</v>
       </c>
       <c r="H20">
-        <v>0.4350198831325116</v>
+        <v>0.8721431237424042</v>
       </c>
       <c r="I20">
-        <v>0.3313845958948747</v>
+        <v>0.7976947669677479</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2152008461147403</v>
+        <v>0.2182238291198786</v>
       </c>
       <c r="M20">
-        <v>0.6464068495533795</v>
+        <v>0.3047948017758628</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.416390703744867</v>
+        <v>1.653266983084166</v>
       </c>
       <c r="C21">
-        <v>0.8706271789598645</v>
+        <v>0.3176785363690158</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03354642225712889</v>
+        <v>0.09035039936312494</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.755288303520814</v>
+        <v>0.8265876425523686</v>
       </c>
       <c r="H21">
-        <v>0.4520211775088967</v>
+        <v>0.8645711761543851</v>
       </c>
       <c r="I21">
-        <v>0.3303357730913348</v>
+        <v>0.7846889115394262</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2383021282455076</v>
+        <v>0.2226860974049742</v>
       </c>
       <c r="M21">
-        <v>0.7306905003759994</v>
+        <v>0.3277136283627726</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.754334553628894</v>
+        <v>1.749053837051008</v>
       </c>
       <c r="C22">
-        <v>0.9321196037008121</v>
+        <v>0.3361333910247879</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03292390218816243</v>
+        <v>0.0899552992514594</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.8010306471577735</v>
+        <v>0.8272363338548274</v>
       </c>
       <c r="H22">
-        <v>0.4652232687115685</v>
+        <v>0.8601854643851681</v>
       </c>
       <c r="I22">
-        <v>0.3319392242662076</v>
+        <v>0.7767930376724124</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2537867446139472</v>
+        <v>0.2256982673867469</v>
       </c>
       <c r="M22">
-        <v>0.7864609704554084</v>
+        <v>0.3427599921151767</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.573619249343551</v>
+        <v>1.697918185074172</v>
       </c>
       <c r="C23">
-        <v>0.8992362348460006</v>
+        <v>0.3262904362874508</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03325369577569881</v>
+        <v>0.09016451143084381</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.7762191339606233</v>
+        <v>0.8268170032327475</v>
       </c>
       <c r="H23">
-        <v>0.4579739551749356</v>
+        <v>0.8624745675524963</v>
       </c>
       <c r="I23">
-        <v>0.3308616030321474</v>
+        <v>0.7809517698291017</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2454844302110786</v>
+        <v>0.2240818517692844</v>
       </c>
       <c r="M23">
-        <v>0.7566264611681106</v>
+        <v>0.3347233256852249</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.896269094987304</v>
+        <v>1.504528209954969</v>
       </c>
       <c r="C24">
-        <v>0.7759752660211632</v>
+        <v>0.2888638403351536</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03455632366747929</v>
+        <v>0.09099340342736295</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6905435438052052</v>
+        <v>0.8268290278156485</v>
       </c>
       <c r="H24">
-        <v>0.4347747759818077</v>
+        <v>0.872276361098514</v>
       </c>
       <c r="I24">
-        <v>0.3314377259668859</v>
+        <v>0.7979175055695826</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2148292557497768</v>
+        <v>0.2181525141366478</v>
       </c>
       <c r="M24">
-        <v>0.6450395834913181</v>
+        <v>0.3044213565839655</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.177403114936908</v>
+        <v>1.296556676128887</v>
       </c>
       <c r="C25">
-        <v>0.645050051432662</v>
+        <v>0.2481790141133899</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03607363615758641</v>
+        <v>0.09196594339537301</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6132093127259566</v>
+        <v>0.8302223421672039</v>
       </c>
       <c r="H25">
-        <v>0.4176352855988767</v>
+        <v>0.8852542619509194</v>
       </c>
       <c r="I25">
-        <v>0.3407384676730523</v>
+        <v>0.8187958113535423</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1831891883529408</v>
+        <v>0.2121685145381562</v>
       </c>
       <c r="M25">
-        <v>0.52706820503019</v>
+        <v>0.2720304739562565</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_244/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.143971560016951</v>
+        <v>2.655130807415105</v>
       </c>
       <c r="C2">
-        <v>0.2179478008422109</v>
+        <v>0.5497596773721511</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09275002793725218</v>
+        <v>0.03728561930731455</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8355886751384389</v>
+        <v>0.5668879714341557</v>
       </c>
       <c r="H2">
-        <v>0.8968658160378311</v>
+        <v>0.4107230039393812</v>
       </c>
       <c r="I2">
-        <v>0.8363699754589149</v>
+        <v>0.3539245522575243</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2081157683844523</v>
+        <v>0.1608841741797562</v>
       </c>
       <c r="M2">
-        <v>0.2484339422530155</v>
+        <v>0.4417024887411429</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.040905945403495</v>
+        <v>2.304211476272826</v>
       </c>
       <c r="C3">
-        <v>0.1972862587502107</v>
+        <v>0.4855953569564804</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09332410553341686</v>
+        <v>0.03816540093634213</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.8409947495308074</v>
+        <v>0.5410860402797653</v>
       </c>
       <c r="H3">
-        <v>0.9060113594016173</v>
+        <v>0.4091267920027661</v>
       </c>
       <c r="I3">
-        <v>0.8496455536922625</v>
+        <v>0.3663179125946456</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.205589229310668</v>
+        <v>0.1462823009433976</v>
       </c>
       <c r="M3">
-        <v>0.2326001763199983</v>
+        <v>0.384536143752463</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9777953924269127</v>
+        <v>2.089842222371544</v>
       </c>
       <c r="C4">
-        <v>0.1845140525478541</v>
+        <v>0.4463217126792642</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09369774142490983</v>
+        <v>0.03873419003496226</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.845180354856268</v>
+        <v>0.5276926511298257</v>
       </c>
       <c r="H4">
-        <v>0.912254251543331</v>
+        <v>0.4095292536692625</v>
       </c>
       <c r="I4">
-        <v>0.8584676409226759</v>
+        <v>0.3754840980981484</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2041464342171295</v>
+        <v>0.137539463155278</v>
       </c>
       <c r="M4">
-        <v>0.2229563791031097</v>
+        <v>0.3497018628959694</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9521216346157644</v>
+        <v>2.002707566450056</v>
       </c>
       <c r="C5">
-        <v>0.1792877161574324</v>
+        <v>0.4303375797127273</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09385533196088924</v>
+        <v>0.03897313740975306</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.8471029295784263</v>
+        <v>0.5228079795124074</v>
       </c>
       <c r="H5">
-        <v>0.9149557713654985</v>
+        <v>0.4100214455229008</v>
       </c>
       <c r="I5">
-        <v>0.8622309906448393</v>
+        <v>0.3795901793144516</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2035857876954594</v>
+        <v>0.1340284755150876</v>
       </c>
       <c r="M5">
-        <v>0.2190462591937958</v>
+        <v>0.3355637483755771</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9478612329723433</v>
+        <v>1.988250882487023</v>
       </c>
       <c r="C6">
-        <v>0.1784185864701158</v>
+        <v>0.4276843442024187</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09388182209081064</v>
+        <v>0.03901324611698032</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.8474352453180245</v>
+        <v>0.5220303115850413</v>
       </c>
       <c r="H6">
-        <v>0.9154138600220989</v>
+        <v>0.410122449538548</v>
       </c>
       <c r="I6">
-        <v>0.8628660436042423</v>
+        <v>0.3802938064687922</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2034943424348299</v>
+        <v>0.1334484881664082</v>
       </c>
       <c r="M6">
-        <v>0.2183981872321894</v>
+        <v>0.3332193034945732</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9774489663994359</v>
+        <v>2.088666260355012</v>
       </c>
       <c r="C7">
-        <v>0.1844436555649338</v>
+        <v>0.4461060770706524</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09369984514459095</v>
+        <v>0.03873738360553469</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.8452054063485406</v>
+        <v>0.5276245080322042</v>
       </c>
       <c r="H7">
-        <v>0.9122900479097211</v>
+        <v>0.409534587549544</v>
       </c>
       <c r="I7">
-        <v>0.8585177139690749</v>
+        <v>0.3755379991793966</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2041387625629341</v>
+        <v>0.137491908445142</v>
       </c>
       <c r="M7">
-        <v>0.2229035654752991</v>
+        <v>0.3495109724114798</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.108399377103581</v>
+        <v>2.533872882374453</v>
       </c>
       <c r="C8">
-        <v>0.2108415606381016</v>
+        <v>0.5276033743565165</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09294358779455902</v>
+        <v>0.03758301315987866</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.8372723438683636</v>
+        <v>0.5574566410029149</v>
       </c>
       <c r="H8">
-        <v>0.8998887844549017</v>
+        <v>0.4098735690296991</v>
       </c>
       <c r="I8">
-        <v>0.8408079201438703</v>
+        <v>0.3578618790904855</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2072221059840658</v>
+        <v>0.1558005775222213</v>
       </c>
       <c r="M8">
-        <v>0.2429583085335452</v>
+        <v>0.42193019301628</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.366528139400373</v>
+        <v>3.41826966452453</v>
       </c>
       <c r="C9">
-        <v>0.2619262222058865</v>
+        <v>0.6889403844835158</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09162781352145766</v>
+        <v>0.03554769639753563</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.8286311830018889</v>
+        <v>0.6374625878787299</v>
       </c>
       <c r="H9">
-        <v>0.8805624261780167</v>
+        <v>0.4224549148655541</v>
       </c>
       <c r="I9">
-        <v>0.8114198777581905</v>
+        <v>0.3365503000729078</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2141293132370379</v>
+        <v>0.1936784080953089</v>
       </c>
       <c r="M9">
-        <v>0.2829021310474076</v>
+        <v>0.5665394929367409</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.556969232774691</v>
+        <v>4.07903423747365</v>
       </c>
       <c r="C10">
-        <v>0.299046802830901</v>
+        <v>0.8092386033395371</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09076227394441716</v>
+        <v>0.03419383706593249</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.8265579012041542</v>
+        <v>0.7124909908663568</v>
       </c>
       <c r="H10">
-        <v>0.8694260620759025</v>
+        <v>0.4403961903404365</v>
       </c>
       <c r="I10">
-        <v>0.7931089850807282</v>
+        <v>0.3305407753279042</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2197294326416994</v>
+        <v>0.2230255694014431</v>
       </c>
       <c r="M10">
-        <v>0.3126228053659759</v>
+        <v>0.6751099256067832</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.643775539114699</v>
+        <v>4.383035806351927</v>
       </c>
       <c r="C11">
-        <v>0.315845772391782</v>
+        <v>0.8645579332960551</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09039031441232459</v>
+        <v>0.03360923799102378</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.826555935535211</v>
+        <v>0.750927517500358</v>
       </c>
       <c r="H11">
-        <v>0.8650290526655624</v>
+        <v>0.4508014293262192</v>
       </c>
       <c r="I11">
-        <v>0.7854965086144787</v>
+        <v>0.3302742868785131</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.222391362627647</v>
+        <v>0.2367834673552807</v>
       </c>
       <c r="M11">
-        <v>0.3262245665117547</v>
+        <v>0.725190948155749</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.676671162487821</v>
+        <v>4.498737658884352</v>
       </c>
       <c r="C12">
-        <v>0.3221945598874356</v>
+        <v>0.8856109047437428</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09025258200954878</v>
+        <v>0.03339242218302885</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.8266915581964582</v>
+        <v>0.7661738041799424</v>
       </c>
       <c r="H12">
-        <v>0.8634605605345058</v>
+        <v>0.4550973076910054</v>
       </c>
       <c r="I12">
-        <v>0.7827174495688922</v>
+        <v>0.3305628607584552</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2234158177029855</v>
+        <v>0.2420589620740401</v>
       </c>
       <c r="M12">
-        <v>0.3313868641558457</v>
+        <v>0.744271732149663</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.669585451817738</v>
+        <v>4.473791701389302</v>
       </c>
       <c r="C13">
-        <v>0.3208277969085032</v>
+        <v>0.8810717847208025</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09028210653412061</v>
+        <v>0.03343891351443418</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.8266562681188674</v>
+        <v>0.7628582759963507</v>
       </c>
       <c r="H13">
-        <v>0.8637940630792542</v>
+        <v>0.4541557345602172</v>
       </c>
       <c r="I13">
-        <v>0.7833113534149732</v>
+        <v>0.3304827988415227</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2231944519805609</v>
+        <v>0.2409197493589517</v>
       </c>
       <c r="M13">
-        <v>0.3302745570002443</v>
+        <v>0.7401568923079935</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.646481407429519</v>
+        <v>4.392542423063333</v>
       </c>
       <c r="C14">
-        <v>0.3163683441347871</v>
+        <v>0.8662877575530956</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09037892060679686</v>
+        <v>0.03359130867180893</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.8265643544139607</v>
+        <v>0.752167547057951</v>
       </c>
       <c r="H14">
-        <v>0.8648980745942509</v>
+        <v>0.4511475252299419</v>
       </c>
       <c r="I14">
-        <v>0.7852657942781818</v>
+        <v>0.3302900109917886</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2224753157464789</v>
+        <v>0.2372161264188719</v>
       </c>
       <c r="M14">
-        <v>0.326649040032521</v>
+        <v>0.7267583054592492</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.632332603446343</v>
+        <v>4.342853707874724</v>
       </c>
       <c r="C15">
-        <v>0.3136351558029276</v>
+        <v>0.8572463586507695</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09043862808622904</v>
+        <v>0.03368525079967677</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.8265258440984127</v>
+        <v>0.7457114453044369</v>
       </c>
       <c r="H15">
-        <v>0.8655868992258604</v>
+        <v>0.4493522616991328</v>
       </c>
       <c r="I15">
-        <v>0.7864764545260172</v>
+        <v>0.3302237344330123</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.222036964670238</v>
+        <v>0.2349563242647434</v>
       </c>
       <c r="M15">
-        <v>0.3244298135579484</v>
+        <v>0.7185669396953571</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.551299644205756</v>
+        <v>4.059243404337053</v>
       </c>
       <c r="C16">
-        <v>0.2979471878708182</v>
+        <v>0.805636922081078</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0907870196627949</v>
+        <v>0.03423267646449579</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.8265770563515815</v>
+        <v>0.7100717119489559</v>
       </c>
       <c r="H16">
-        <v>0.8697269094238322</v>
+        <v>0.4397640782057977</v>
       </c>
       <c r="I16">
-        <v>0.7936209522388786</v>
+        <v>0.3306107274421635</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2195577704145393</v>
+        <v>0.222135250122335</v>
       </c>
       <c r="M16">
-        <v>0.3117355298712425</v>
+        <v>0.6718523244157311</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.501632305168243</v>
+        <v>3.886195152571133</v>
       </c>
       <c r="C17">
-        <v>0.2883007108190725</v>
+        <v>0.7741416270472712</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09100631670395809</v>
+        <v>0.0345765568261136</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.826850262488108</v>
+        <v>0.689359732782151</v>
       </c>
       <c r="H17">
-        <v>0.8724382699673896</v>
+        <v>0.4344791557965948</v>
       </c>
       <c r="I17">
-        <v>0.7981879155525036</v>
+        <v>0.3315036945410412</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2180661590305419</v>
+        <v>0.2143791715483445</v>
       </c>
       <c r="M17">
-        <v>0.303968817467613</v>
+        <v>0.6433829810037679</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.473081374195488</v>
+        <v>3.786977931920887</v>
       </c>
       <c r="C18">
-        <v>0.2827440918310344</v>
+        <v>0.7560811144266495</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09113450114382138</v>
+        <v>0.03477728768034383</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.8270959304098113</v>
+        <v>0.6778473089431856</v>
       </c>
       <c r="H18">
-        <v>0.8740607185536362</v>
+        <v>0.4316484310844544</v>
       </c>
       <c r="I18">
-        <v>0.8008821932271708</v>
+        <v>0.3322472683072064</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.217218992858534</v>
+        <v>0.2099559977901322</v>
       </c>
       <c r="M18">
-        <v>0.2995093058934302</v>
+        <v>0.6270721880144521</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.463417369145475</v>
+        <v>3.753436234560638</v>
       </c>
       <c r="C19">
-        <v>0.2808613059370657</v>
+        <v>0.7499749867095318</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09117825472361063</v>
+        <v>0.03484575489238528</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.8271942826810204</v>
+        <v>0.6740161164351974</v>
       </c>
       <c r="H19">
-        <v>0.8746208517622591</v>
+        <v>0.4307249436102296</v>
       </c>
       <c r="I19">
-        <v>0.801806004634944</v>
+        <v>0.3325375235475967</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2169340069441432</v>
+        <v>0.2084646955735963</v>
       </c>
       <c r="M19">
-        <v>0.2980007179845217</v>
+        <v>0.6215601467913601</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.506917787395764</v>
+        <v>3.904583139828162</v>
       </c>
       <c r="C20">
-        <v>0.2893284459695451</v>
+        <v>0.7774885563223961</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09098276001326533</v>
+        <v>0.03453964547897037</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.8268120095814453</v>
+        <v>0.6915226028851009</v>
       </c>
       <c r="H20">
-        <v>0.8721431237424042</v>
+        <v>0.4350198831324974</v>
       </c>
       <c r="I20">
-        <v>0.7976947669677479</v>
+        <v>0.3313845958948747</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2182238291198786</v>
+        <v>0.2152008461147261</v>
       </c>
       <c r="M20">
-        <v>0.3047948017758628</v>
+        <v>0.6464068495533866</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.653266983084166</v>
+        <v>4.416390703744867</v>
       </c>
       <c r="C21">
-        <v>0.3176785363690158</v>
+        <v>0.8706271789598929</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09035039936312494</v>
+        <v>0.03354642225714066</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.8265876425523686</v>
+        <v>0.7552883035208993</v>
       </c>
       <c r="H21">
-        <v>0.8645711761543851</v>
+        <v>0.4520211775088967</v>
       </c>
       <c r="I21">
-        <v>0.7846889115394262</v>
+        <v>0.3303357730913419</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2226860974049742</v>
+        <v>0.2383021282454223</v>
       </c>
       <c r="M21">
-        <v>0.3277136283627726</v>
+        <v>0.7306905003759923</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.749053837051008</v>
+        <v>4.754334553629008</v>
       </c>
       <c r="C22">
-        <v>0.3361333910247879</v>
+        <v>0.9321196037007553</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0899552992514594</v>
+        <v>0.03292390218814356</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.8272363338548274</v>
+        <v>0.8010306471577735</v>
       </c>
       <c r="H22">
-        <v>0.8601854643851681</v>
+        <v>0.4652232687116822</v>
       </c>
       <c r="I22">
-        <v>0.7767930376724124</v>
+        <v>0.3319392242662147</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2256982673867469</v>
+        <v>0.2537867446139899</v>
       </c>
       <c r="M22">
-        <v>0.3427599921151767</v>
+        <v>0.7864609704554084</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.697918185074172</v>
+        <v>4.573619249343551</v>
       </c>
       <c r="C23">
-        <v>0.3262904362874508</v>
+        <v>0.8992362348461143</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09016451143084381</v>
+        <v>0.0332536957757108</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.8268170032327475</v>
+        <v>0.776219133960609</v>
       </c>
       <c r="H23">
-        <v>0.8624745675524963</v>
+        <v>0.4579739551749213</v>
       </c>
       <c r="I23">
-        <v>0.7809517698291017</v>
+        <v>0.3308616030321474</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2240818517692844</v>
+        <v>0.2454844302110502</v>
       </c>
       <c r="M23">
-        <v>0.3347233256852249</v>
+        <v>0.7566264611681035</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.504528209954969</v>
+        <v>3.896269094987531</v>
       </c>
       <c r="C24">
-        <v>0.2888638403351536</v>
+        <v>0.7759752660211348</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09099340342736295</v>
+        <v>0.03455632366747152</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.8268290278156485</v>
+        <v>0.6905435438052194</v>
       </c>
       <c r="H24">
-        <v>0.872276361098514</v>
+        <v>0.4347747759818219</v>
       </c>
       <c r="I24">
-        <v>0.7979175055695826</v>
+        <v>0.331437725966893</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2181525141366478</v>
+        <v>0.2148292557497768</v>
       </c>
       <c r="M24">
-        <v>0.3044213565839655</v>
+        <v>0.6450395834913039</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.296556676128887</v>
+        <v>3.177403114936851</v>
       </c>
       <c r="C25">
-        <v>0.2481790141133899</v>
+        <v>0.6450500514327189</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09196594339537301</v>
+        <v>0.03607363615758485</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8302223421672039</v>
+        <v>0.613209312725985</v>
       </c>
       <c r="H25">
-        <v>0.8852542619509194</v>
+        <v>0.4176352855988767</v>
       </c>
       <c r="I25">
-        <v>0.8187958113535423</v>
+        <v>0.3407384676730558</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2121685145381562</v>
+        <v>0.183189188352948</v>
       </c>
       <c r="M25">
-        <v>0.2720304739562565</v>
+        <v>0.5270682050301971</v>
       </c>
       <c r="N25">
         <v>0</v>
